--- a/metadata_files/06_metadata_phenology/01_WORKING_monthly_datatypes/Chatham Albatross_Chatham Island.xlsx
+++ b/metadata_files/06_metadata_phenology/01_WORKING_monthly_datatypes/Chatham Albatross_Chatham Island.xlsx
@@ -3006,13 +3006,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7B61258-203E-4001-A721-43153BF7C1E2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3D01EBCF-436C-48CD-B6AC-FA58F7E23769}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52C015F6-711F-4F3B-B8AF-DEA04B162253}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{142701F3-A03A-42E3-BEE1-F6BEA790482C}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0998F50E-51FB-423F-A179-E5FBC48BF9D8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9261564-4F6E-4246-B97A-A4E37C7C9F39}"/>
 </file>